--- a/Assets/Data/Localization.xlsx
+++ b/Assets/Data/Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9d72655d379bd3/ドキュメント/FLUFF_SWING/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{F301ABF1-CB16-460D-9EC4-1FD68F577622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B73A4AD-B2E9-49BA-B819-2825D0B1949C}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{F301ABF1-CB16-460D-9EC4-1FD68F577622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB46D1C4-FB8A-4FB6-B75D-136678CC379D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B1BF36B-69CD-4390-BDF2-E8ADE26CAF34}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
   <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
@@ -444,6 +444,18 @@
   </si>
   <si>
     <t>スタートアップ画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HOWTO_GOAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Goal</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -811,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899382F0-89AC-4511-BF71-6E9C0299E563}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -953,55 +965,55 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -1009,13 +1021,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1023,13 +1035,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -1037,97 +1049,97 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>74</v>
@@ -1135,27 +1147,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>87</v>
@@ -1163,13 +1175,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>87</v>
@@ -1177,29 +1189,43 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>94</v>
       </c>
     </row>
